--- a/InPut/WangNetwork/Data.xlsx
+++ b/InPut/WangNetwork/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\WangNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518140CF-4CAB-431A-A896-0802DA536FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE5864-80E1-4ABB-9EF3-3600C4F21B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkData" sheetId="1" r:id="rId1"/>
-    <sheet name="DemanData" sheetId="2" r:id="rId2"/>
-    <sheet name="Prob" sheetId="3" r:id="rId3"/>
-    <sheet name="Para" sheetId="4" r:id="rId4"/>
+    <sheet name="MultifailureLInks" sheetId="5" r:id="rId2"/>
+    <sheet name="DemanData" sheetId="2" r:id="rId3"/>
+    <sheet name="Prob" sheetId="3" r:id="rId4"/>
+    <sheet name="Para" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t xml:space="preserve">Tail </t>
   </si>
@@ -148,6 +149,48 @@
   </si>
   <si>
     <t>UEmaxIter</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>res,1</t>
+  </si>
+  <si>
+    <t>2,1,1</t>
+  </si>
+  <si>
+    <t>3,1,1</t>
+  </si>
+  <si>
+    <t>6,1,1</t>
+  </si>
+  <si>
+    <t>7,1,1</t>
+  </si>
+  <si>
+    <t>8,1,1</t>
+  </si>
+  <si>
+    <t>12,1,1</t>
+  </si>
+  <si>
+    <t>15,1,1</t>
+  </si>
+  <si>
+    <t>res,2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>13,1,1</t>
   </si>
 </sst>
 </file>
@@ -155,15 +198,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,22 +271,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,13 +294,13 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -269,8 +319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,9 +337,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +455,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 2" descr="1637744153(1)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6235357-83BB-4246-BEF2-19246E96A4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="2514600"/>
+          <a:ext cx="3578225" cy="2027555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>253447</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867A7D0B-4166-400F-96E4-3A3EDF6AFA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866360" y="5499653"/>
+          <a:ext cx="7316857" cy="2104528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546653</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3AF872-8723-4882-91E4-3D7015E13633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="405848" y="0"/>
+          <a:ext cx="4431196" cy="2631905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -443,7 +637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -782,8 +976,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N11" sqref="M11:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1644,6 +1838,368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AA139-8146-46C5-B16C-771EDB0A7853}">
+  <dimension ref="J2:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="10:18">
+      <c r="K2">
+        <v>763320</v>
+      </c>
+    </row>
+    <row r="6" spans="10:18">
+      <c r="J6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="P6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="10:18" ht="15.75" customHeight="1">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <f>J7-1&amp;","&amp;K7&amp;","&amp;L7</f>
+        <v>1,1,1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="10:18">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P16" si="0">J8-1&amp;","&amp;K8&amp;","&amp;L8</f>
+        <v>2,1,1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="10:18">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>3,1,1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="10:18">
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>6,1,1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="10:18">
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>7,1,1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="10:18">
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>13,1,1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="10:18">
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>15,1,1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="10:18">
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>12,1,1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="10:18">
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>8,1,1</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="10:18">
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16">
+      <c r="J18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="10:16">
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="str">
+        <f>J19-1&amp;","&amp;K19&amp;","&amp;L19</f>
+        <v>1,2,1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" ref="P20:P28" si="1">J20-1&amp;","&amp;K20&amp;","&amp;L20</f>
+        <v>2,2,1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:16">
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>3,2,1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16">
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>6,2,1</v>
+      </c>
+    </row>
+    <row r="23" spans="10:16">
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>7,2,1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:16">
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>13,2,1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:16">
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>15,2,1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:16">
+      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>12,2,1</v>
+      </c>
+    </row>
+    <row r="27" spans="10:16">
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>8,2,1</v>
+      </c>
+    </row>
+    <row r="28" spans="10:16">
+      <c r="P28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J7:J14">
+    <sortCondition ref="J7:J14"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J18:L18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:J14"/>
@@ -1745,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C6:R35"/>
@@ -1757,13 +2313,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="3:12">
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="3:12">
       <c r="D7" s="2"/>
@@ -1785,7 +2341,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="3:12" ht="15.75">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4">
@@ -1809,7 +2365,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="3:12" ht="15.75">
-      <c r="C9" s="29"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1821,7 +2377,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="3:12" ht="15.75">
-      <c r="C10" s="29"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -1833,7 +2389,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="3:12" ht="15.75">
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1873,17 +2429,17 @@
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="3:18">
       <c r="D17" s="2" t="s">
@@ -1931,7 +2487,7 @@
       </c>
     </row>
     <row r="18" spans="3:18" ht="15.75">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="7">
@@ -1983,7 +2539,7 @@
       </c>
     </row>
     <row r="19" spans="3:18" ht="15.75">
-      <c r="C19" s="29"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="9">
         <v>0.2</v>
       </c>
@@ -2029,7 +2585,7 @@
       </c>
     </row>
     <row r="20" spans="3:18" ht="15.75">
-      <c r="C20" s="29"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>0.4</v>
       </c>
@@ -2075,7 +2631,7 @@
       </c>
     </row>
     <row r="21" spans="3:18" ht="15.75">
-      <c r="C21" s="29"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="7">
         <v>0.6</v>
       </c>
@@ -2214,14 +2770,14 @@
       </c>
     </row>
     <row r="27" spans="3:18">
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="3:18">
       <c r="C28" s="12"/>
@@ -2251,7 +2807,7 @@
       </c>
     </row>
     <row r="29" spans="3:18" ht="15.75">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="15">
@@ -2280,7 +2836,7 @@
       </c>
     </row>
     <row r="30" spans="3:18" ht="15.75">
-      <c r="C30" s="30"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="17">
         <v>0.3</v>
       </c>
@@ -2307,7 +2863,7 @@
       </c>
     </row>
     <row r="31" spans="3:18" ht="15.75">
-      <c r="C31" s="30"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="15">
         <v>0.6</v>
       </c>
@@ -2334,7 +2890,7 @@
       </c>
     </row>
     <row r="32" spans="3:18" ht="15.75">
-      <c r="C32" s="30"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="18">
         <v>0.99990000000000001</v>
       </c>
@@ -2428,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C5:D10"/>
